--- a/data/trans_orig/P25C_R_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25C_R_2023-Provincia-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3466</v>
+        <v>3999</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01351622817342009</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06882661839375798</v>
+        <v>0.0793972747060467</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3480</v>
+        <v>3674</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01083954963484984</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05542098794142861</v>
+        <v>0.05849994807141033</v>
       </c>
     </row>
     <row r="5">
@@ -804,7 +804,7 @@
         <v>49680</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46895</v>
+        <v>46362</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>50361</v>
@@ -813,7 +813,7 @@
         <v>0.9864837718265799</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9311733816062421</v>
+        <v>0.9206027252939534</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>62116</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>59317</v>
+        <v>59123</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>62797</v>
@@ -847,7 +847,7 @@
         <v>0.9891604503651501</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9445790120585715</v>
+        <v>0.9415000519285877</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -942,19 +942,19 @@
         <v>23101</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15266</v>
+        <v>15029</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33891</v>
+        <v>33105</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1947743484910401</v>
+        <v>0.19477434849104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1287161803866953</v>
+        <v>0.1267163224746616</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2857470010050083</v>
+        <v>0.2791218349874763</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -963,19 +963,19 @@
         <v>5603</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2736</v>
+        <v>2591</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10926</v>
+        <v>10793</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08395139019912963</v>
+        <v>0.08395139019912967</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04099943451897636</v>
+        <v>0.03881749993376813</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1637002032640218</v>
+        <v>0.1617107049357077</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -984,19 +984,19 @@
         <v>28704</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19910</v>
+        <v>20180</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40623</v>
+        <v>40649</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1548673824112457</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1074176005810733</v>
+        <v>0.1088765311706821</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2191726697331627</v>
+        <v>0.219310341088271</v>
       </c>
     </row>
     <row r="8">
@@ -1013,19 +1013,19 @@
         <v>95504</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>84714</v>
+        <v>85500</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>103339</v>
+        <v>103576</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8052256515089599</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7142529989949915</v>
+        <v>0.7208781650125236</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8712838196133046</v>
+        <v>0.8732836775253382</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -1034,19 +1034,19 @@
         <v>61140</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55817</v>
+        <v>55950</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64007</v>
+        <v>64152</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9160486098008704</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8362997967359785</v>
+        <v>0.8382892950642924</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9590005654810236</v>
+        <v>0.9611825000662321</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>164</v>
@@ -1055,19 +1055,19 @@
         <v>156644</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>144725</v>
+        <v>144699</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>165438</v>
+        <v>165168</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8451326175887544</v>
+        <v>0.8451326175887541</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.780827330266837</v>
+        <v>0.780689658911729</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8925823994189266</v>
+        <v>0.891123468829318</v>
       </c>
     </row>
     <row r="9">
@@ -1159,19 +1159,19 @@
         <v>2757</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8613</v>
+        <v>7497</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04073686587873149</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009119724646432152</v>
+        <v>0.008958000583892503</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1272477311455096</v>
+        <v>0.1107630093202221</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1180,19 +1180,19 @@
         <v>4275</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8013</v>
+        <v>8054</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08612625093598866</v>
+        <v>0.08612625093598869</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03596693186952923</v>
+        <v>0.03639955017405076</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1614311966213274</v>
+        <v>0.1622625002228283</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1201,19 +1201,19 @@
         <v>7032</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3469</v>
+        <v>3455</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12870</v>
+        <v>12385</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05993970535878113</v>
+        <v>0.05993970535878112</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02956430443593483</v>
+        <v>0.02944641770412202</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1096997352550535</v>
+        <v>0.1055627846940082</v>
       </c>
     </row>
     <row r="11">
@@ -1230,19 +1230,19 @@
         <v>64931</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59075</v>
+        <v>60191</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>67071</v>
+        <v>67082</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9592631341212684</v>
+        <v>0.9592631341212686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8727522688544903</v>
+        <v>0.8892369906797777</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9908802753535678</v>
+        <v>0.9910419994161075</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>67</v>
@@ -1251,19 +1251,19 @@
         <v>45361</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41623</v>
+        <v>41582</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47851</v>
+        <v>47829</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9138737490640114</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8385688033786726</v>
+        <v>0.8377374997771712</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9640330681304707</v>
+        <v>0.9636004498259493</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>155</v>
@@ -1272,19 +1272,19 @@
         <v>110292</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>104454</v>
+        <v>104939</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>113855</v>
+        <v>113869</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9400602946412188</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8903002647449465</v>
+        <v>0.8944372153059919</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9704356955640653</v>
+        <v>0.970553582295878</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>4186</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1279</v>
+        <v>1511</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10240</v>
+        <v>9411</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03896291372084233</v>
+        <v>0.03896291372084234</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01190746656596024</v>
+        <v>0.01406546755060454</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09531521589289203</v>
+        <v>0.08759815517089242</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1397,19 +1397,19 @@
         <v>3428</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1311</v>
+        <v>1528</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7366</v>
+        <v>7839</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05266885439866073</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02013835122288682</v>
+        <v>0.02347070282335599</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1131609433124635</v>
+        <v>0.120430534954785</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1418,19 +1418,19 @@
         <v>7614</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4041</v>
+        <v>3733</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14664</v>
+        <v>14127</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04413420044883811</v>
+        <v>0.0441342004488381</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02342208029456613</v>
+        <v>0.02163597345693073</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08499751831345215</v>
+        <v>0.08188286448740741</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>103245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>97191</v>
+        <v>98020</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>106152</v>
+        <v>105920</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9610370862791576</v>
+        <v>0.9610370862791577</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9046847841071081</v>
+        <v>0.9124018448291076</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9880925334340397</v>
+        <v>0.9859345324493954</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>90</v>
@@ -1468,19 +1468,19 @@
         <v>61666</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57728</v>
+        <v>57255</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63783</v>
+        <v>63566</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9473311456013394</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.886839056687537</v>
+        <v>0.8795694650452152</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9798616487771133</v>
+        <v>0.9765292971766441</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>199</v>
@@ -1489,19 +1489,19 @@
         <v>164911</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>157861</v>
+        <v>158398</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>168484</v>
+        <v>168792</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.955865799551162</v>
+        <v>0.9558657995511618</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9150024816865484</v>
+        <v>0.9181171355125927</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9765779197054338</v>
+        <v>0.9783640265430693</v>
       </c>
     </row>
     <row r="15">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2292</v>
+        <v>2211</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04403200262825985</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2594821901051004</v>
+        <v>0.2503483426225384</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2009</v>
+        <v>2330</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0158545800719295</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08191720290521055</v>
+        <v>0.0949767269074169</v>
       </c>
     </row>
     <row r="17">
@@ -1669,7 +1669,7 @@
         <v>8443</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6540</v>
+        <v>6621</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>8832</v>
@@ -1678,7 +1678,7 @@
         <v>0.9559679973717401</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7405178098948976</v>
+        <v>0.7496516573774611</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>24140</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22520</v>
+        <v>22199</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>24529</v>
@@ -1699,7 +1699,7 @@
         <v>0.9841454199280705</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9180827970947892</v>
+        <v>0.9050232730925842</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1794,19 +1794,19 @@
         <v>2487</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>914</v>
+        <v>873</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5457</v>
+        <v>5550</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05584541364739158</v>
+        <v>0.05584541364739157</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02051710404370277</v>
+        <v>0.01960932303619238</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1225263609101958</v>
+        <v>0.1246156470218422</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1828,19 +1828,19 @@
         <v>2487</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5439</v>
+        <v>5523</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04438447422668194</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01576631984649127</v>
+        <v>0.01574465951556242</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09706085754863751</v>
+        <v>0.0985551819262724</v>
       </c>
     </row>
     <row r="20">
@@ -1857,19 +1857,19 @@
         <v>42049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39079</v>
+        <v>38986</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>43622</v>
+        <v>43663</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9441545863526084</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8774736390898035</v>
+        <v>0.8753843529781573</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9794828959562972</v>
+        <v>0.9803906769638077</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -1891,19 +1891,19 @@
         <v>53549</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>50597</v>
+        <v>50513</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>55153</v>
+        <v>55154</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9556155257733181</v>
+        <v>0.955615525773318</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9029391424513624</v>
+        <v>0.9014448180737277</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9842336801535088</v>
+        <v>0.9842553404844376</v>
       </c>
     </row>
     <row r="21">
@@ -1995,19 +1995,19 @@
         <v>5619</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2003</v>
+        <v>2139</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11724</v>
+        <v>11399</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.03946754374031863</v>
+        <v>0.03946754374031864</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01407161101106878</v>
+        <v>0.01502257824076696</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0823581384510782</v>
+        <v>0.08006895315893808</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -2016,19 +2016,19 @@
         <v>12718</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7802</v>
+        <v>7768</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19140</v>
+        <v>18688</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1184114077594609</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07263699257909238</v>
+        <v>0.07232020819262124</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1782018949029388</v>
+        <v>0.1739951856404324</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -2037,19 +2037,19 @@
         <v>18337</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11906</v>
+        <v>12032</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26782</v>
+        <v>25902</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07341590557381661</v>
+        <v>0.07341590557381659</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04766821676517182</v>
+        <v>0.0481731647936665</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1072260671391107</v>
+        <v>0.103702873394719</v>
       </c>
     </row>
     <row r="23">
@@ -2066,19 +2066,19 @@
         <v>136740</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>130635</v>
+        <v>130960</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>140356</v>
+        <v>140220</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9605324562596813</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9176418615489215</v>
+        <v>0.9199310468410622</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9859283889889313</v>
+        <v>0.984977421759233</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>123</v>
@@ -2087,19 +2087,19 @@
         <v>94690</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>88268</v>
+        <v>88720</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>99606</v>
+        <v>99640</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8815885922405391</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8217981050970612</v>
+        <v>0.8260048143595671</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9273630074209075</v>
+        <v>0.9276797918073787</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>260</v>
@@ -2108,19 +2108,19 @@
         <v>231430</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>222985</v>
+        <v>223865</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>237861</v>
+        <v>237735</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9265840944261835</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8927739328608892</v>
+        <v>0.8962971266052812</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9523317832348281</v>
+        <v>0.9518268352063338</v>
       </c>
     </row>
     <row r="24">
@@ -2212,19 +2212,19 @@
         <v>10081</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5730</v>
+        <v>5495</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16788</v>
+        <v>15815</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.08878234242728981</v>
+        <v>0.0887823424272898</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0504666631541664</v>
+        <v>0.04839886049460669</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1478595384589212</v>
+        <v>0.1392855928441748</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2233,19 +2233,19 @@
         <v>4185</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1806</v>
+        <v>1418</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8513</v>
+        <v>8161</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.09460177523420234</v>
+        <v>0.09460177523420236</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04082733602111911</v>
+        <v>0.0320609754753438</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1924241822463748</v>
+        <v>0.1844585113571152</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -2254,19 +2254,19 @@
         <v>14266</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9122</v>
+        <v>8751</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21968</v>
+        <v>20986</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09041405930901071</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05781064647910891</v>
+        <v>0.05546537494382985</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1392314661688382</v>
+        <v>0.1330053693780541</v>
       </c>
     </row>
     <row r="26">
@@ -2283,19 +2283,19 @@
         <v>103461</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>96754</v>
+        <v>97727</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>107812</v>
+        <v>108047</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9112176575727102</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8521404615410787</v>
+        <v>0.8607144071558254</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9495333368458335</v>
+        <v>0.9516011395053932</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>55</v>
@@ -2304,19 +2304,19 @@
         <v>40056</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35728</v>
+        <v>36080</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>42435</v>
+        <v>42823</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9053982247657976</v>
+        <v>0.9053982247657977</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8075758177536254</v>
+        <v>0.8155414886428848</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9591726639788809</v>
+        <v>0.9679390245246563</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>182</v>
@@ -2325,19 +2325,19 @@
         <v>143517</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>135815</v>
+        <v>136797</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>148661</v>
+        <v>149032</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9095859406909892</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8607685338311618</v>
+        <v>0.8669946306219463</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9421893535208911</v>
+        <v>0.9445346250561704</v>
       </c>
     </row>
     <row r="27">
@@ -2429,19 +2429,19 @@
         <v>48911</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36724</v>
+        <v>37643</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>63617</v>
+        <v>62916</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.07408350723436667</v>
+        <v>0.07408350723436666</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05562381435797243</v>
+        <v>0.0570154865073502</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09635694409280827</v>
+        <v>0.09529560687453814</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>46</v>
@@ -2450,19 +2450,19 @@
         <v>30599</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>22843</v>
+        <v>22437</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>40238</v>
+        <v>39750</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08362903563916922</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06243160457059749</v>
+        <v>0.06132258797051911</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1099719240897835</v>
+        <v>0.1086380149484811</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>100</v>
@@ -2471,19 +2471,19 @@
         <v>79510</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>64402</v>
+        <v>65486</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>95920</v>
+        <v>96644</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07748725350339865</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06276297852587792</v>
+        <v>0.0638195084882839</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09347919541700377</v>
+        <v>0.09418486680029235</v>
       </c>
     </row>
     <row r="29">
@@ -2500,19 +2500,19 @@
         <v>611308</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>596602</v>
+        <v>597303</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>623495</v>
+        <v>622576</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9259164927656333</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9036430559071917</v>
+        <v>0.9047043931254618</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9443761856420276</v>
+        <v>0.9429845134926499</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>479</v>
@@ -2521,19 +2521,19 @@
         <v>335291</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>325652</v>
+        <v>326140</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>343047</v>
+        <v>343453</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9163709643608309</v>
+        <v>0.9163709643608308</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8900280759102166</v>
+        <v>0.8913619850515189</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9375683954294025</v>
+        <v>0.9386774120294807</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1185</v>
@@ -2542,19 +2542,19 @@
         <v>946599</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>930189</v>
+        <v>929465</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>961707</v>
+        <v>960623</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9225127464966013</v>
+        <v>0.9225127464966012</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9065208045829963</v>
+        <v>0.9058151331997082</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9372370214741222</v>
+        <v>0.9361804915117162</v>
       </c>
     </row>
     <row r="30">
